--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceWhite\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceWhite\OneDrive\ドキュメント\学校\2019年度\卒業制作\設計書\ユースケース関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
     <sheet name="プランを見る" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -247,6 +246,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>基本フロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前条件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成したプランの確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱんくん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うらしま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はまもと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シチズン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんかわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.保存してあるプランの一覧を見る
 2.選んだプランを削除する
 3.確認したいプランを選ぶ
@@ -261,36 +325,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本フロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トリガー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前条件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生成したプランの確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース名</t>
+    <t>しゃどう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,6 +503,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -922,9 +964,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -938,7 +982,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -947,38 +991,38 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:3" ht="206.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -994,6 +1038,66 @@
         <v>13</v>
       </c>
       <c r="C9" s="13"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <f>4200*2*35</f>
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <f>E19+13000</f>
+        <v>307000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -5,18 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceWhite\OneDrive\ドキュメント\学校\2019年度\卒業制作\設計書\ユースケース関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\travelplan\設計書\ユースケース関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="プランを作る" sheetId="1" r:id="rId1"/>
-    <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId2"/>
-    <sheet name="プランを見る" sheetId="2" r:id="rId3"/>
+    <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId1"/>
+    <sheet name="駅で出発地を決める" sheetId="4" r:id="rId2"/>
+    <sheet name="住所で出発地を決める" sheetId="6" r:id="rId3"/>
+    <sheet name="目的地リストから目的を決める" sheetId="7" r:id="rId4"/>
+    <sheet name="旅行診断ツールで目的を決める" sheetId="8" r:id="rId5"/>
+    <sheet name="旅行プランを表示する" sheetId="9" r:id="rId6"/>
+    <sheet name="プランを作る" sheetId="1" r:id="rId7"/>
+    <sheet name="プランを見る" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -326,6 +332,415 @@
   </si>
   <si>
     <t>しゃどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発地決定画面でGPSで決めるを押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを起動していること</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.GPSで現在地を取得
+2.決定ボタンを押下
+3.出発地の出力</t>
+    <rPh sb="6" eb="9">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替えフロー</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.再取得を押下(1へ進む)</t>
+    <rPh sb="2" eb="5">
+      <t>サイシュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.GPSが取得できなかった場合、穴吹コンピュータカレッジの位置情報を返すとする</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アナブキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの作成時に出発地を決める</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発地決定画面で駅で決めるを押下</t>
+    <rPh sb="8" eb="9">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.全国の路線や駅名情報の取得
+2.駅名を選択
+3.決定ボタンを押下
+4.出発地の出力</t>
+    <rPh sb="18" eb="20">
+      <t>エキメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発地決定画面で住所で決めるを押下</t>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.住所を入力
+2.決定ボタンを押下
+3.出発地の出力</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.住所が入力されていない場合、アラートを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの作成時に目的を決める</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的決定方法選択画面で目的が決まっているを押下</t>
+    <rPh sb="11" eb="13">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的一覧を取得
+2.目的を選択
+3.目的の出力</t>
+    <rPh sb="2" eb="4">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的が取得できない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.国の路線や駅名情報の取得ができなかった場合、アラートを表示し、ホーム画面に戻る</t>
+    <rPh sb="2" eb="3">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エキメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的決定方法選択画面で旅行診断ツールで決定するを押下</t>
+    <rPh sb="11" eb="13">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行診断ツールの質問を取得
+2.旅行診断ツールのすべての質問に回答する
+3.目的の出力</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行診断ツールの質問が取得できない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.出発地と目的をもとに旅行プランの取得
+2.旅行プランの表示</t>
+    <rPh sb="2" eb="5">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの取得ができない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -784,99 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>プランを作る</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -906,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -921,37 +1244,47 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="262.5" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -959,14 +1292,567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>駅で出発地を決める</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>住所で出発地を決める</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>目的地リストから目的を決める</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行診断ツールで目的を決める</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランを表示する</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>プランを作る</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="プランを見る" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1386,9 +1385,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1480,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1664,10 +1668,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,16 @@
     <sheet name="目的地リストから目的を決める" sheetId="7" r:id="rId4"/>
     <sheet name="旅行診断ツールで目的を決める" sheetId="8" r:id="rId5"/>
     <sheet name="旅行プランを表示する" sheetId="9" r:id="rId6"/>
-    <sheet name="プランを作る" sheetId="1" r:id="rId7"/>
-    <sheet name="プランを見る" sheetId="2" r:id="rId8"/>
+    <sheet name="旅行プランの移動経路を表示する" sheetId="10" r:id="rId7"/>
+    <sheet name="旅行プランの目的地詳細情報を表示する" sheetId="11" r:id="rId8"/>
+    <sheet name="旅行プランの再取得をする" sheetId="12" r:id="rId9"/>
+    <sheet name="旅行プランの取得キャンセルをする" sheetId="13" r:id="rId10"/>
+    <sheet name="旅行プランを保存する" sheetId="14" r:id="rId11"/>
+    <sheet name="旅行プランの一覧を表示する" sheetId="15" r:id="rId12"/>
+    <sheet name="旅行プランを削除する" sheetId="16" r:id="rId13"/>
+    <sheet name="旅行プランの目的地の削除をする" sheetId="17" r:id="rId14"/>
+    <sheet name="旅行プランの目的地の入れ替えをする" sheetId="18" r:id="rId15"/>
+    <sheet name="旅行プランの詳細を表示する" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="65">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -40,22 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.プランの名前を入力しなければデフォルト値が設定される</t>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例外</t>
     <rPh sb="0" eb="2">
       <t>レイガイ</t>
@@ -63,122 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.旅行プランをつくる
-　1-1.出発地を決める
-　　1-1-1.GPSで決める
-　　1-1-2.駅から決める
-　　1-1-3.住所で決める
-　1-2.目的を決める
-　　1-2-1.目的一覧から目的を選択する
-　　1-2-2.旅行診断に回答して目的を決める
-2.旅行プランを生成する
-3.旅行プランの生成結果を確認する
-　3-1.旅行プランを再生成する(2へ戻る)
-　3-2.旅行プランを保存する
-　　3-2-1.プランの名前を入力できる
-　3-3.旅行プランの生成をキャンセルする</t>
-    <rPh sb="2" eb="4">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>シュッパツチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="171" eb="174">
-      <t>サイセイセイ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本フロー</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -186,13 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホーム画面から「プランを作る」を押下した場合</t>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トリガー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,16 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>旅行プランを生成する</t>
-    <rPh sb="0" eb="2">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -236,101 +95,6 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.選んだプランの編集を行う際に目的地を全削除するとプランも消える</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本フロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トリガー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前条件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生成したプランの確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こうざい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぱんくん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うらしま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はまもと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かいちょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シチズン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しんかわ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.保存してあるプランの一覧を見る
-2.選んだプランを削除する
-3.確認したいプランを選ぶ
-　3-1.選んだプランを編集する
-　　3-1-1.プランのタイトルを変更できる
-　　3-1-2.プランの入れ替えができる
-　　3-1-3.目的地の削除が出来る
-　　3-1-4.編集したプランを保存できる
-　3-2.目的地詳細を確認する
-　　3-2-1.目的地の詳細を確認する
-　　3-2-2.目的地毎の移動経路を確認する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃどう</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -739,6 +503,459 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを起動していること、出発地と目的が決定している</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シュッパツチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的地が決定したら</t>
+    <rPh sb="0" eb="3">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プラン表示画面か旅行プラン詳細表示画面で移動経路を押下</t>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.移動経路を取得
+2.移動経路を表示</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.移動経路の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プラン表示画面か旅行プラン詳細表示画面でインフォメーションを押下</t>
+    <rPh sb="32" eb="34">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的地詳細情報を取得
+2.目的地詳細情報を表示</t>
+    <rPh sb="2" eb="5">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的地詳細情報の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="5">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランを表示する</t>
+  </si>
+  <si>
+    <t>旅行プランの移動経路を表示する</t>
+  </si>
+  <si>
+    <t>旅行プランの目的地詳細情報を表示する</t>
+  </si>
+  <si>
+    <t>旅行プラン表示画面で再生成を押下</t>
+    <rPh sb="10" eb="13">
+      <t>サイセイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの取得キャンセルをする</t>
+  </si>
+  <si>
+    <t>旅行プラン表示画面でキャンセルを押下</t>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.プランを保存せずにホーム画面に戻る</t>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの再取得をする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランを保存する</t>
+  </si>
+  <si>
+    <t>旅行プラン表示画面で保存を押下</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.プランを保存する</t>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの一覧を表示する</t>
+  </si>
+  <si>
+    <t>ホーム画面でプランを見るを押下</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの一覧を取得
+2.旅行プランの一覧を表示</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの一覧の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.削除するプランを選択
+2.旅行プランの削除</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランを削除する</t>
+  </si>
+  <si>
+    <t>旅行プラン詳細表示画面で編集を押下</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの編集をする</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プラン編集画面で目的地の削除を押下
+2.完了を押下した場合、旅行プランの更新</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.キャンセルを押下した場合、旅行プランは更新されない</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的地がすべて削除される場合はプランそのものを削除する</t>
+    <rPh sb="2" eb="5">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プラン編集画面で目的地の入れ替えを行う
+2.完了を押下した場合、旅行プランの更新</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行プランの詳細を表示する</t>
+  </si>
+  <si>
+    <t>旅行プラン表示画面で保存を押下するか、旅行プラン一覧表示画面でプランを選択</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの詳細を取得
+2.旅行プランの詳細を表示</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -763,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,14 +993,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -875,22 +1086,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,14 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1200,9 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1216,7 +1406,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1225,58 +1415,696 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの取得キャンセルをする</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランを保存する</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの一覧を表示する</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランを削除する</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの目的地の削除をする</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの目的地の入れ替えをする</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの詳細を表示する</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1309,7 +2137,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1318,56 +2146,56 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1390,9 +2218,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1406,7 +2232,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1415,56 +2241,56 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1484,9 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1500,7 +2324,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1509,56 +2333,56 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1592,7 +2416,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1601,56 +2425,56 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1673,9 +2497,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1689,7 +2511,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1698,56 +2520,56 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1765,14 +2587,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1786,64 +2603,72 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>プランを作る</v>
+        <v>旅行プランの移動経路を表示する</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="262.5" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1854,14 +2679,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1873,127 +2693,170 @@
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="str">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>プランを見る</v>
+        <v>旅行プランの目的地詳細情報を表示する</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" ht="206.25" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E19">
-        <f>4200*2*35</f>
-        <v>294000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E20">
-        <f>E19+13000</f>
-        <v>307000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの再取得をする</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -870,22 +870,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.目的地がすべて削除される場合はプランそのものを削除する</t>
-    <rPh sb="2" eb="5">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.旅行プラン編集画面で目的地の入れ替えを行う
 2.完了を押下した場合、旅行プランの更新</t>
     <rPh sb="2" eb="4">
@@ -956,6 +940,23 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的地がすべて削除される場合はプランそのものを削除する
+2.キャンセルを押下した場合、旅行プランは更新されない</t>
+    <rPh sb="38" eb="40">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1908,21 +1909,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
@@ -1999,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2058,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2082,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2090,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2213,9 +2212,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="2" tint="-0.499984740745262"/>
-  </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2492,9 +2488,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -329,59 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.目的が取得できない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="4">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.国の路線や駅名情報の取得ができなかった場合、アラートを表示し、ホーム画面に戻る</t>
-    <rPh sb="2" eb="3">
-      <t>クニ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ロセン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エキメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目的決定方法選択画面で旅行診断ツールで決定するを押下</t>
     <rPh sb="11" eb="13">
       <t>リョコウ</t>
@@ -434,34 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.旅行診断ツールの質問が取得できない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="4">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.出発地と目的をもとに旅行プランの取得
 2.旅行プランの表示</t>
     <rPh sb="2" eb="5">
@@ -485,28 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.旅行プランの取得ができない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="4">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリを起動していること、出発地と目的が決定している</t>
     <rPh sb="4" eb="6">
       <t>キドウ</t>
@@ -563,31 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.移動経路の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイロ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>旅行プラン表示画面か旅行プラン詳細表示画面でインフォメーションを押下</t>
     <rPh sb="32" eb="34">
       <t>オウカ</t>
@@ -624,34 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.目的地詳細情報の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="5">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>旅行プランを表示する</t>
   </si>
   <si>
@@ -754,31 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.旅行プランの一覧の取得ができない場合は、アラートを表示しホーム画面に戻る</t>
-    <rPh sb="2" eb="4">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.削除するプランを選択
 2.旅行プランの削除</t>
     <rPh sb="2" eb="4">
@@ -957,6 +776,127 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.全国の路線や駅名情報の取得ができなかった場合、アラートを表示する</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エキメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的が取得できない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行診断ツールの質問が取得できない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの取得ができない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.移動経路の取得ができない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目的地詳細情報の取得ができない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="5">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.旅行プランの一覧の取得ができない場合は、アラートを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1512,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1536,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
@@ -1544,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1602,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1626,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
@@ -1634,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1692,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1716,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1724,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1738,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1784,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1808,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1816,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1874,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1898,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1906,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1914,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -1966,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1990,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1998,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2006,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -2057,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2081,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2089,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2103,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2189,12 +2129,12 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2378,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2448,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
@@ -2456,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2465,12 +2405,12 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2516,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2532,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -2540,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2548,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2562,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2608,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2632,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2640,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2654,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2700,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2724,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2732,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2746,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2792,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2816,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -2824,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2838,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(ユーザー).xlsx
@@ -12,23 +12,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId1"/>
-    <sheet name="駅で出発地を決める" sheetId="4" r:id="rId2"/>
-    <sheet name="住所で出発地を決める" sheetId="6" r:id="rId3"/>
-    <sheet name="目的地リストから目的を決める" sheetId="7" r:id="rId4"/>
-    <sheet name="旅行診断ツールで目的を決める" sheetId="8" r:id="rId5"/>
-    <sheet name="旅行プランを表示する" sheetId="9" r:id="rId6"/>
-    <sheet name="旅行プランの移動経路を表示する" sheetId="10" r:id="rId7"/>
-    <sheet name="旅行プランの目的地詳細情報を表示する" sheetId="11" r:id="rId8"/>
-    <sheet name="旅行プランの再取得をする" sheetId="12" r:id="rId9"/>
-    <sheet name="旅行プランの取得キャンセルをする" sheetId="13" r:id="rId10"/>
-    <sheet name="旅行プランを保存する" sheetId="14" r:id="rId11"/>
-    <sheet name="旅行プランの一覧を表示する" sheetId="15" r:id="rId12"/>
-    <sheet name="旅行プランを削除する" sheetId="16" r:id="rId13"/>
-    <sheet name="旅行プランの目的地の削除をする" sheetId="17" r:id="rId14"/>
-    <sheet name="旅行プランの目的地の入れ替えをする" sheetId="18" r:id="rId15"/>
-    <sheet name="旅行プランの詳細を表示する" sheetId="19" r:id="rId16"/>
+    <sheet name="見出し" sheetId="20" r:id="rId1"/>
+    <sheet name="GPSで出発地を決める" sheetId="3" r:id="rId2"/>
+    <sheet name="駅で出発地を決める" sheetId="4" r:id="rId3"/>
+    <sheet name="住所で出発地を決める" sheetId="6" r:id="rId4"/>
+    <sheet name="目的地リストから目的を決める" sheetId="7" r:id="rId5"/>
+    <sheet name="旅行診断ツールで目的を決める" sheetId="8" r:id="rId6"/>
+    <sheet name="旅行プランを表示する" sheetId="9" r:id="rId7"/>
+    <sheet name="旅行プランの移動経路を表示する" sheetId="10" r:id="rId8"/>
+    <sheet name="旅行プランの目的地詳細情報を表示する" sheetId="11" r:id="rId9"/>
+    <sheet name="旅行プランの再取得をする" sheetId="12" r:id="rId10"/>
+    <sheet name="旅行プランの取得キャンセルをする" sheetId="13" r:id="rId11"/>
+    <sheet name="旅行プランを保存する" sheetId="14" r:id="rId12"/>
+    <sheet name="旅行プランの一覧を表示する" sheetId="15" r:id="rId13"/>
+    <sheet name="旅行プランを削除する" sheetId="16" r:id="rId14"/>
+    <sheet name="旅行プランの目的地の削除をする" sheetId="17" r:id="rId15"/>
+    <sheet name="旅行プランの目的地の入れ替えをする" sheetId="18" r:id="rId16"/>
+    <sheet name="旅行プランの詳細を表示する" sheetId="19" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GPSで出発地を決める!$A$1:$E$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">見出し!$A$1:$E$49</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="70">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -900,12 +905,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユースケースシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とらべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,6 +949,28 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -935,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1027,11 +1083,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,9 +1236,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1331,9 +1546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A20:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1342,91 +1559,100 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>GPSで出発地を決める</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:E30"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1435,88 +1661,400 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの取得キャンセルをする</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの再取得をする</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1525,88 +2063,398 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランを保存する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの取得キャンセルをする</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1615,90 +2463,391 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの一覧を表示する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランを保存する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1707,88 +2856,393 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランを削除する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの一覧を表示する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1797,90 +3251,391 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの目的地の削除をする</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランを削除する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1889,89 +3644,393 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの目的地の入れ替えをする</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの目的地の削除をする</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1980,89 +4039,400 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの詳細を表示する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの目的地の入れ替えをする</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2071,90 +4441,400 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>駅で出発地を決める</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの詳細を表示する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2163,90 +4843,402 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>住所で出発地を決める</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A5),LEN(CELL("filename",A5))-FIND("]",CELL("filename",A5)))</f>
+        <v>GPSで出発地を決める</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2255,90 +5247,386 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>目的地リストから目的を決める</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="6" t="str">
+        <f ca="1">RIGHT(CELL("filename",A5),LEN(CELL("filename",A5))-FIND("]",CELL("filename",A5)))</f>
+        <v>駅で出発地を決める</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2347,90 +5635,393 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行診断ツールで目的を決める</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>住所で出発地を決める</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2439,90 +6030,407 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランを表示する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>目的地リストから目的を決める</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2531,90 +6439,400 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの移動経路を表示する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行診断ツールで目的を決める</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2623,90 +6841,393 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの目的地詳細情報を表示する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランを表示する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2715,81 +7236,786 @@
     <col min="3" max="3" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C6" s="6" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>旅行プランの再取得をする</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+        <v>旅行プランの移動経路を表示する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>43838</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>旅行プランの目的地詳細情報を表示する</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>